--- a/data_export.xlsx
+++ b/data_export.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zullo\OneDrive\Escritorio\Proyectos\College - Web Scrapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947BF469-98BB-4F62-BEEB-CA83A85983D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
   <si>
     <t>Materia</t>
   </si>
@@ -55,65 +61,59 @@
     <t>XI</t>
   </si>
   <si>
-    <t xml:space="preserve"> AEC1034  Fundamentos de Telecomunicaciones  JESUS DE LEON MARTINEZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6A </t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>85</t>
+    <t>Desarrollo Sustentable</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t xml:space="preserve"> SCC1010  Graficación  MIGUEL ANGEL GUZMAN RIVERA </t>
+    <t>Fundamentos de Bases de Datos</t>
   </si>
   <si>
     <t xml:space="preserve">6V </t>
   </si>
   <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SCD1016  Lenguajes y Automatas II  GUILLERMO FERNANDEZ ROMERO </t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SCD1022  Simulación  MARIBEL OCAMPO CASADOS </t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AEC1061  Sistemas Operativos  JULIO CESAR MENDOZA CONTRERAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SCC1023  Sistemas Programables  JOSE LUIS CAMARGO RICO </t>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Lengua Extranjera IV</t>
+  </si>
+  <si>
+    <t>I02</t>
+  </si>
+  <si>
+    <t>Programación Lógica y Funcional</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Redes de Computadoras</t>
   </si>
   <si>
     <t>97</t>
   </si>
   <si>
-    <t>80</t>
+    <t>Taller de Investigación I</t>
+  </si>
+  <si>
+    <t>T06</t>
+  </si>
+  <si>
+    <t>Taller de Sistemas Operativos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +150,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -194,7 +202,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -228,6 +236,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -262,9 +271,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -437,14 +447,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -496,239 +509,280 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" t="s">
-        <v>17</v>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data_export.xlsx
+++ b/data_export.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zullo\OneDrive\Escritorio\Proyectos\College - Web Scrapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947BF469-98BB-4F62-BEEB-CA83A85983D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -94,7 +88,7 @@
     <t>94</t>
   </si>
   <si>
-    <t>Redes de Computadoras</t>
+    <t>Redes de Computadora</t>
   </si>
   <si>
     <t>97</t>
@@ -112,8 +106,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,21 +144,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +188,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -236,7 +222,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -271,10 +256,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -447,17 +431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -539,7 +520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -580,7 +561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -621,7 +602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -662,7 +643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -703,7 +684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -744,7 +725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>28</v>
       </c>
